--- a/upload_files/data_engineer_mid__data-engineer-medior-amazon.xlsx
+++ b/upload_files/data_engineer_mid__data-engineer-medior-amazon.xlsx
@@ -55,7 +55,7 @@
     <t>data-engineer-medior-amazon.txt</t>
   </si>
   <si>
-    <t>32.27</t>
+    <t>30.13</t>
   </si>
   <si>
     <t>data engineer : 3</t>
@@ -220,49 +220,49 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>data architecture : 1</t>
+  </si>
+  <si>
+    <t>analysis : 6</t>
+  </si>
+  <si>
     <t>engineer : 1</t>
   </si>
   <si>
+    <t>database : 1</t>
+  </si>
+  <si>
     <t>hadoop : 1</t>
   </si>
   <si>
-    <t>analysis : 6</t>
+    <t>design : 4</t>
+  </si>
+  <si>
+    <t>big data : 3</t>
+  </si>
+  <si>
+    <t>documentation : 2</t>
+  </si>
+  <si>
+    <t>sql : 4</t>
+  </si>
+  <si>
+    <t>tools : 2</t>
+  </si>
+  <si>
+    <t>spark : 1</t>
   </si>
   <si>
     <t>analyze : 2</t>
   </si>
   <si>
-    <t>big data : 3</t>
-  </si>
-  <si>
-    <t>spark : 1</t>
+    <t>python : 1</t>
   </si>
   <si>
     <t>data engineer : 1</t>
   </si>
   <si>
-    <t>sql : 4</t>
-  </si>
-  <si>
-    <t>database : 1</t>
-  </si>
-  <si>
-    <t>documentation : 2</t>
-  </si>
-  <si>
-    <t>tools : 2</t>
-  </si>
-  <si>
-    <t>design : 4</t>
-  </si>
-  <si>
-    <t>python : 1</t>
-  </si>
-  <si>
-    <t>data architecture : 1</t>
-  </si>
-  <si>
-    <t>33.33</t>
+    <t>31.2</t>
   </si>
   <si>
     <t>big data : 1</t>
@@ -686,7 +686,7 @@
         <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>84</v>
@@ -703,7 +703,7 @@
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -711,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>83</v>
@@ -722,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -762,7 +762,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,7 +770,7 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -778,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -786,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -794,7 +794,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11">
